--- a/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
+++ b/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A57C466-0F31-4132-96F0-CC4A45962205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A17F4D7-E2C3-4014-81AE-35B272B05566}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>setting_name</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>data('CARTONA') == 'VIC'</t>
+  </si>
+  <si>
+    <t>How many prenatal consultations?</t>
+  </si>
+  <si>
+    <t>Number of times received iron/FA</t>
   </si>
 </sst>
 </file>
@@ -885,8 +891,8 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,8 +1115,10 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1169,8 +1177,10 @@
       <c r="D31" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" t="s">
         <v>51</v>
       </c>
     </row>

--- a/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
+++ b/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A17F4D7-E2C3-4014-81AE-35B272B05566}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B0A45-B8DA-4688-AB17-F2BE21DC5108}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <sheet name="model" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
+++ b/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B0A45-B8DA-4688-AB17-F2BE21DC5108}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC177541-637B-4A9E-86D7-E4135368F6F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="model" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
   <si>
     <t>setting_name</t>
   </si>
@@ -39,9 +38,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.tittle.text</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -72,9 +68,6 @@
     <t>display.prompt.text</t>
   </si>
   <si>
-    <t>display.prompt.text.portuguese</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -90,18 +83,12 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>display.title.text.portuguese</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
     <t>display.locale.text</t>
   </si>
   <si>
-    <t>display.locale.text.portuguese</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -117,9 +104,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>portuguese</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -385,6 +369,18 @@
   </si>
   <si>
     <t>Number of times received iron/FA</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.prompt.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -773,9 +769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,29 +792,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>10072019</v>
@@ -826,59 +822,59 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -891,9 +887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,420 +907,420 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1352,30 +1348,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,219 +1398,219 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1641,13 +1637,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
+++ b/app/config/tables/MIFGRAVIDA_VISIT/forms/MIFGRAVIDA_VISIT/MIFGRAVIDA_VISIT.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC177541-637B-4A9E-86D7-E4135368F6F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFA801D-C2AE-40E2-AE31-3361861451FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId3"/>
-    <sheet name="choices" sheetId="3" r:id="rId4"/>
-    <sheet name="model" sheetId="4" r:id="rId5"/>
+    <sheet name="queries" sheetId="6" r:id="rId3"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId4"/>
+    <sheet name="choices" sheetId="3" r:id="rId5"/>
+    <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>setting_name</t>
   </si>
@@ -381,6 +382,63 @@
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>GRVISITDATA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>linked_visitdate</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>MIFVISIT_CORE</t>
+  </si>
+  <si>
+    <t>ID = ?</t>
+  </si>
+  <si>
+    <t>[data('ID')]</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>CONT</t>
+  </si>
+  <si>
+    <t>async_assign_date</t>
   </si>
 </sst>
 </file>
@@ -390,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +483,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,12 +533,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -485,11 +551,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{322DA532-9927-4EA6-AC2F-DB026E3AA22C}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{18730A62-28BE-437A-AABD-62A33FCC35FF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:F7"/>
     </sheetView>
@@ -885,11 +958,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +971,7 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
@@ -950,376 +1023,390 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>107</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>109</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>102</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>108</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>109</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>108</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>30</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>109</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>30</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>63</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>108</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>30</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>60</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>109</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>62</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>108</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1330,12 +1417,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,12 +1545,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1619,18 +1798,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D8"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1646,7 +1825,175 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>